--- a/timeline/va欄位順序.xlsx
+++ b/timeline/va欄位順序.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user01\Desktop\d3\d3\timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{268500F0-DC57-499F-BA31-26A0901A9B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61919C6-C18E-47D1-B36F-54BD990E5E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13965" yWindow="3615" windowWidth="24285" windowHeight="10800" xr2:uid="{6F8287EE-50E2-4301-A23D-4CCD59CD3FA8}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="24285" windowHeight="10800" xr2:uid="{6F8287EE-50E2-4301-A23D-4CCD59CD3FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>欄位順序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,15 +59,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>簡碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>說明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>說明1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://10.70.12.114/test/timeline/timeline_pg.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病歷號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,6 +90,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -109,18 +122,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470CB15C-2920-4903-96B3-740D19300FF0}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -447,46 +467,54 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{25DE64DD-A71A-4854-A8E3-263BDD406ED2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>